--- a/REGULAR/RE-ENCODE/BAYHON, GEORGE G..xlsx
+++ b/REGULAR/RE-ENCODE/BAYHON, GEORGE G..xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="277">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2034,9 +2034,9 @@
   <dimension ref="A2:K485"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A423" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B434" sqref="B434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11551,8 +11551,12 @@
       <c r="K432" s="44"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433" s="46"/>
-      <c r="B433" s="44"/>
+      <c r="A433" s="46">
+        <v>45017</v>
+      </c>
+      <c r="B433" s="44" t="s">
+        <v>47</v>
+      </c>
       <c r="C433" s="12"/>
       <c r="D433" s="45"/>
       <c r="E433" s="47"/>
@@ -11564,7 +11568,9 @@
       <c r="H433" s="45"/>
       <c r="I433" s="47"/>
       <c r="J433" s="43"/>
-      <c r="K433" s="44"/>
+      <c r="K433" s="48">
+        <v>45040</v>
+      </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="46"/>
